--- a/37.xlsx
+++ b/37.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="13215" windowHeight="9555"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="13215" windowHeight="9555" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name=" 1 " sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="101">
   <si>
     <t>I</t>
   </si>
@@ -567,28 +567,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -604,23 +594,33 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -928,7 +928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
@@ -953,121 +953,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="17" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="17" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="17" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="22" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="23"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="20"/>
+      <c r="J5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="11" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="24" t="s">
+      <c r="M5" s="21"/>
+      <c r="N5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="25"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" spans="1:15" ht="30.95" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -1215,83 +1215,83 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="17" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="17" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="17" t="s">
+      <c r="K12" s="14"/>
+      <c r="L12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="22" t="s">
+      <c r="M12" s="15"/>
+      <c r="N12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="23"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11" t="s">
+      <c r="G13" s="20"/>
+      <c r="H13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="11" t="s">
+      <c r="I13" s="20"/>
+      <c r="J13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="11" t="s">
+      <c r="K13" s="20"/>
+      <c r="L13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="24" t="s">
+      <c r="M13" s="21"/>
+      <c r="N13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="25"/>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:15" ht="30.95" customHeight="1">
       <c r="A14" s="3" t="s">
@@ -1461,83 +1461,83 @@
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="17" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="17" t="s">
+      <c r="G20" s="14"/>
+      <c r="H20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="17" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="17" t="s">
+      <c r="K20" s="14"/>
+      <c r="L20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="22" t="s">
+      <c r="M20" s="15"/>
+      <c r="N20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O20" s="23"/>
+      <c r="O20" s="8"/>
     </row>
     <row r="21" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="20"/>
+      <c r="F21" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="11" t="s">
+      <c r="G21" s="20"/>
+      <c r="H21" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="11" t="s">
+      <c r="I21" s="20"/>
+      <c r="J21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="11" t="s">
+      <c r="K21" s="20"/>
+      <c r="L21" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="24" t="s">
+      <c r="M21" s="21"/>
+      <c r="N21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O21" s="25"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:15" ht="30.95" customHeight="1">
       <c r="A22" s="3" t="s">
@@ -1696,43 +1696,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="B21:C21"/>
@@ -1747,6 +1710,43 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N20:O20"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0" footer="0"/>
@@ -1783,121 +1783,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="17" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="17" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="17" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="22" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="23"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="20"/>
+      <c r="J5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="11" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="24" t="s">
+      <c r="M5" s="21"/>
+      <c r="N5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="25"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" spans="1:15" ht="30.95" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -2041,83 +2041,83 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="17" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="17" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="17" t="s">
+      <c r="K12" s="14"/>
+      <c r="L12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="22" t="s">
+      <c r="M12" s="15"/>
+      <c r="N12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="23"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11" t="s">
+      <c r="G13" s="20"/>
+      <c r="H13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="11" t="s">
+      <c r="I13" s="20"/>
+      <c r="J13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="11" t="s">
+      <c r="K13" s="20"/>
+      <c r="L13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="24" t="s">
+      <c r="M13" s="21"/>
+      <c r="N13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="25"/>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:15" ht="30.95" customHeight="1">
       <c r="A14" s="3" t="s">
@@ -2275,83 +2275,83 @@
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="17" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="17" t="s">
+      <c r="G20" s="14"/>
+      <c r="H20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="17" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="17" t="s">
+      <c r="K20" s="14"/>
+      <c r="L20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="22" t="s">
+      <c r="M20" s="15"/>
+      <c r="N20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O20" s="23"/>
+      <c r="O20" s="8"/>
     </row>
     <row r="21" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="20"/>
+      <c r="F21" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="11" t="s">
+      <c r="G21" s="20"/>
+      <c r="H21" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="11" t="s">
+      <c r="I21" s="20"/>
+      <c r="J21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="11" t="s">
+      <c r="K21" s="20"/>
+      <c r="L21" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="24" t="s">
+      <c r="M21" s="21"/>
+      <c r="N21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O21" s="25"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:15" ht="30.95" customHeight="1">
       <c r="A22" s="3" t="s">
@@ -2498,11 +2498,36 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
@@ -2519,36 +2544,11 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N20:O20"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0" footer="0"/>
@@ -2560,8 +2560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2585,121 +2585,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="17" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="17" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="17" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="22" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="23"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="20"/>
+      <c r="J5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="11" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="24" t="s">
+      <c r="M5" s="21"/>
+      <c r="N5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="25"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" spans="1:15" ht="30.95" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -2837,12 +2837,8 @@
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="6">
-        <v>111</v>
-      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
       <c r="F10" s="5"/>
@@ -2857,83 +2853,83 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="17" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="17" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="17" t="s">
+      <c r="K12" s="14"/>
+      <c r="L12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="22" t="s">
+      <c r="M12" s="15"/>
+      <c r="N12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="23"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11" t="s">
+      <c r="G13" s="20"/>
+      <c r="H13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="11" t="s">
+      <c r="I13" s="20"/>
+      <c r="J13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="11" t="s">
+      <c r="K13" s="20"/>
+      <c r="L13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="24" t="s">
+      <c r="M13" s="21"/>
+      <c r="N13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="25"/>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:15" ht="30.95" customHeight="1">
       <c r="A14" s="3" t="s">
@@ -3031,83 +3027,83 @@
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="17" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="17" t="s">
+      <c r="G20" s="14"/>
+      <c r="H20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="17" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="17" t="s">
+      <c r="K20" s="14"/>
+      <c r="L20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="22" t="s">
+      <c r="M20" s="15"/>
+      <c r="N20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O20" s="23"/>
+      <c r="O20" s="8"/>
     </row>
     <row r="21" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="20"/>
+      <c r="F21" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="11" t="s">
+      <c r="G21" s="20"/>
+      <c r="H21" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="11" t="s">
+      <c r="I21" s="20"/>
+      <c r="J21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="11" t="s">
+      <c r="K21" s="20"/>
+      <c r="L21" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="24" t="s">
+      <c r="M21" s="21"/>
+      <c r="N21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O21" s="25"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:15" ht="30.95" customHeight="1">
       <c r="A22" s="3" t="s">
@@ -3270,11 +3266,36 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
@@ -3291,36 +3312,11 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N20:O20"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0" footer="0"/>
@@ -3357,121 +3353,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="17" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="17" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="17" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="22" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="23"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="20"/>
+      <c r="H5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="20"/>
+      <c r="J5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="11" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="24" t="s">
+      <c r="M5" s="21"/>
+      <c r="N5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="25"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" spans="1:15" ht="30.95" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -3569,83 +3565,83 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="17" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="17" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="17" t="s">
+      <c r="K12" s="14"/>
+      <c r="L12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="22" t="s">
+      <c r="M12" s="15"/>
+      <c r="N12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="23"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11" t="s">
+      <c r="G13" s="20"/>
+      <c r="H13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="11" t="s">
+      <c r="I13" s="20"/>
+      <c r="J13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="11" t="s">
+      <c r="K13" s="20"/>
+      <c r="L13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="24" t="s">
+      <c r="M13" s="21"/>
+      <c r="N13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="25"/>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:15" ht="30.95" customHeight="1">
       <c r="A14" s="3" t="s">
@@ -3743,83 +3739,83 @@
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="17" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="17" t="s">
+      <c r="G20" s="14"/>
+      <c r="H20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="17" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="17" t="s">
+      <c r="K20" s="14"/>
+      <c r="L20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="22" t="s">
+      <c r="M20" s="15"/>
+      <c r="N20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O20" s="23"/>
+      <c r="O20" s="8"/>
     </row>
     <row r="21" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="20"/>
+      <c r="F21" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="11" t="s">
+      <c r="G21" s="20"/>
+      <c r="H21" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="11" t="s">
+      <c r="I21" s="20"/>
+      <c r="J21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="11" t="s">
+      <c r="K21" s="20"/>
+      <c r="L21" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="24" t="s">
+      <c r="M21" s="21"/>
+      <c r="N21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O21" s="25"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:15" ht="30.95" customHeight="1">
       <c r="A22" s="3" t="s">
@@ -3918,30 +3914,23 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="A11:M11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:C12"/>
@@ -3952,23 +3941,30 @@
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N20:O20"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0" footer="0"/>
@@ -4005,103 +4001,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="17" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="17" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="17" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="22" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="23"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="25"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" spans="1:15" ht="30.95" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -4199,67 +4195,67 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="17" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="17" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="17" t="s">
+      <c r="K12" s="14"/>
+      <c r="L12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="22" t="s">
+      <c r="M12" s="15"/>
+      <c r="N12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="23"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="25"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:15" ht="30.95" customHeight="1">
       <c r="A14" s="3" t="s">
@@ -4357,67 +4353,67 @@
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="17" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="17" t="s">
+      <c r="G20" s="14"/>
+      <c r="H20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="17" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="17" t="s">
+      <c r="K20" s="14"/>
+      <c r="L20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="22" t="s">
+      <c r="M20" s="15"/>
+      <c r="N20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O20" s="23"/>
+      <c r="O20" s="8"/>
     </row>
     <row r="21" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="25"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:15" ht="30.95" customHeight="1">
       <c r="A22" s="3" t="s">
@@ -4516,11 +4512,36 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
@@ -4537,36 +4558,11 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N20:O20"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0" footer="0"/>
@@ -4603,103 +4599,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="17" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="17" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="17" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="22" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="23"/>
+      <c r="O4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="25"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" spans="1:15" ht="30.95" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -4797,67 +4793,67 @@
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="17" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="17" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="17" t="s">
+      <c r="K12" s="14"/>
+      <c r="L12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="22" t="s">
+      <c r="M12" s="15"/>
+      <c r="N12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="23"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="25"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:15" ht="30.95" customHeight="1">
       <c r="A14" s="3" t="s">
@@ -4955,67 +4951,67 @@
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="17" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="17" t="s">
+      <c r="G20" s="14"/>
+      <c r="H20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="17" t="s">
+      <c r="I20" s="14"/>
+      <c r="J20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="18"/>
-      <c r="L20" s="17" t="s">
+      <c r="K20" s="14"/>
+      <c r="L20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="22" t="s">
+      <c r="M20" s="15"/>
+      <c r="N20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O20" s="23"/>
+      <c r="O20" s="8"/>
     </row>
     <row r="21" spans="1:15" ht="10.5" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="25"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:15" ht="30.95" customHeight="1">
       <c r="A22" s="3" t="s">
@@ -5114,6 +5110,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:H3"/>
@@ -5130,41 +5161,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
